--- a/Data/processed/GST PURCHASE OF YARN.xlsx
+++ b/Data/processed/GST PURCHASE OF YARN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IITM\BDM\Data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4E2E1B-C317-40B9-84BD-32E6D39078A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD341DCC-0782-410B-B6CD-098BE9FCDBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -224,9 +225,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -239,12 +238,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -257,32 +250,210 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="5"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$-409]d/mmm/yyyy;@"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;&quot;0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -293,6 +464,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9169606F-B577-4354-B242-94C3E1238AD8}" name="Table1" displayName="Table1" ref="A1:H29" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A1:H29" xr:uid="{9169606F-B577-4354-B242-94C3E1238AD8}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{B0C9DF3C-0006-4AD1-861B-823A2C0E460D}" name="Date" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BB28CD02-F092-4B74-9031-2BA1D77BEC5C}" name="Particulars" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{043E7A6F-B32D-469F-8B95-D0BB1F0E0349}" name="YARN TYPE" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EEE65F85-97B9-40BF-85AB-17F32D0510FE}" name="KILO GRAMS" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{B012FEF0-30A8-4425-AA50-0AB0A58A7E75}" name="RATE" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{A27C7892-19D0-4E19-96CD-CBAA4274C034}" name="Vch No." dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{D8ECEBCE-B319-40EC-AC67-882C4ADBBBBF}" name="VALUE" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{01497169-ADDD-4687-A5DE-0B9966481ACF}" name="+ GST" dataDxfId="1" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,777 +807,780 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="14">
         <v>44291</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>750</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>229</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>171750</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="6">
         <v>180338</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="14">
         <v>44295</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>1800</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>245</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>441000</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="6">
         <v>463050</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="14">
         <v>44314</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>1000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>197</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>197000</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="6">
         <v>206850</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="14">
         <v>44321</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>1200</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>195</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>234000</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="6">
         <v>245700</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="14">
         <v>44321</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>1935.36</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>210</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>406426</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="6">
         <v>426748</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="14">
         <v>44390</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>2419.1999999999998</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>230</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>556416</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="6">
         <v>584237</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="14">
         <v>44391</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>1000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>220</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>220000</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="6">
         <v>231000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="14">
         <v>44394</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>302.39999999999998</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>230</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>69552</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="6">
         <v>73030</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="14">
         <v>44405</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>1500</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>235</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>352500</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="6">
         <v>370125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="14">
         <v>44406</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>2721.6</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>250</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>680400</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="6">
         <v>680400</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="14">
         <v>44440</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>1800</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>245</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>441000</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="6">
         <v>463050</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="14">
         <v>44446</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>1800</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>243</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>437400</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="6">
         <v>459270</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="14">
         <v>44448</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>1800</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>240</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>432000</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="6">
         <v>453600</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="14">
         <v>44462</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>500</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>232</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>116000</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="6">
         <v>121800</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="14">
         <v>44467</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>1500</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>232</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>348000</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="6">
         <v>365400</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="14">
         <v>44477</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>1800</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>253</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>455400</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="6">
         <v>478170</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="14">
         <v>44482</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>750</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>250</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>187500</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="6">
         <v>196875</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="14">
         <v>44516</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>750</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>276</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>207000</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="6">
         <v>217350</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="14">
         <v>44531</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>900</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>275</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>247500</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="6">
         <v>259876</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="14">
         <v>44543</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>750</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>264</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>198000</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="6">
         <v>207900</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="14">
         <v>44545</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>907.2</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>280</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>254016</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="6">
         <v>266716</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="14">
         <v>44559</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>900</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>293</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>263700</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="6">
         <v>276886</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="14">
         <v>44559</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>2700</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>276</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>745200</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="6">
         <v>745200</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="14">
         <v>44560</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>300</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>276</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>82800</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="6">
         <v>82800</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="14">
         <v>44581</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>1800</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>310</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>558000</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="6">
         <v>585900</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="14">
         <v>44582</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>1800</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <v>312</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>561600</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="6">
         <v>589680</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="14">
         <v>44582</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>1250</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>293</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>366250</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="6">
         <v>366250</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="14">
         <v>44642</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>1800</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>315</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>567000</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="6">
         <v>595350</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>